--- a/biology/Écologie/Groupe_de_recherche_appliquée_en_macroécologie/Groupe_de_recherche_appliquée_en_macroécologie.xlsx
+++ b/biology/Écologie/Groupe_de_recherche_appliquée_en_macroécologie/Groupe_de_recherche_appliquée_en_macroécologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Groupe_de_recherche_appliqu%C3%A9e_en_macro%C3%A9cologie</t>
+          <t>Groupe_de_recherche_appliquée_en_macroécologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Groupe de recherche appliquée en macroécologie (GRAME), fondé en 1989, est un organisme à but non lucratif indépendant et multidisciplinaire basé à Montréal, au Québec. Il œuvre à la promotion du développement durable en tenant notamment compte du long terme et des enjeux globaux, dont celui des changements climatiques, par la promotion des énergies renouvelables, de l'aménagement urbain et des transports durables, de l'efficacité énergétique et de l'utilisation d'incitatifs économiques en gestion de l'environnement.
 Reconnu pour son expertise approfondie en matière de transport, d’énergie, d’écofiscalité, de gestion des matières résiduelles, de verdissement et d’aménagement urbain, le GRAME œuvre à la protection de l’environnement et à la promotion du développement durable en orientant ses activités autour de trois pôles complémentaires :
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Groupe_de_recherche_appliqu%C3%A9e_en_macro%C3%A9cologie</t>
+          <t>Groupe_de_recherche_appliquée_en_macroécologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +529,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel
  Portail de l’écologie   Portail de l’environnement   Portail du Québec                   </t>
